--- a/论文/整理后的生育意愿统计表.xlsx
+++ b/论文/整理后的生育意愿统计表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="7">
   <si>
     <t>样例计数</t>
   </si>
@@ -40,10 +40,7 @@
     <t>有足够时间照顾</t>
   </si>
   <si>
-    <t>影响职业发展</t>
-  </si>
-  <si>
-    <t>母子健康风险</t>
+    <t>不影响职业发展</t>
   </si>
   <si>
     <t>生孩子的意愿</t>
@@ -52,13 +49,7 @@
     <t>是</t>
   </si>
   <si>
-    <t>愿意</t>
-  </si>
-  <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>不愿意</t>
   </si>
 </sst>
 </file>
@@ -989,21 +980,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="15.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="13.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="13.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,133 +1010,112 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>528</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>582</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>481</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>367</v>
-      </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>811</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1154,453 +1124,163 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>571</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>961</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>823</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>672</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>826</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>231</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>953</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>867</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>573</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>759</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>633</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>101</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>212</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>231</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>334</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>351</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
